--- a/KHD_Voucher_FormTemplate.xlsx
+++ b/KHD_Voucher_FormTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53284FD6-871F-4D2A-A179-A0444CEAC802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4728367-BF27-43B7-96BA-0E87EA1B4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="1916">
   <si>
     <t>Question type</t>
   </si>
@@ -5895,6 +5895,18 @@
   </si>
   <si>
     <t>jr:choice-name(${countyIn},'${countyIn}')</t>
+  </si>
+  <si>
+    <t>materialSample_sampleType</t>
+  </si>
+  <si>
+    <t>materialSample_disposition</t>
+  </si>
+  <si>
+    <t>materialSample_preservationType</t>
+  </si>
+  <si>
+    <t>materialSample_materialSampleID</t>
   </si>
 </sst>
 </file>
@@ -6372,16 +6384,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E6D8AB08-FCF5-4248-A5AD-A4193EF46E16}"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6900,6 +6902,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF00B050"/>
@@ -6936,7 +6948,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ132" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ132" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
@@ -6980,12 +6992,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6994,8 +7006,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA6E830A-C9F4-4210-85CE-9BA069E10E09}" name="tblEsriFieldTypes" displayName="tblEsriFieldTypes" ref="A1:C10" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F05F349-1A9F-403B-A3B4-24E1E9732F01}" name="Esri field types" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E21F91EE-DEEC-4C26-8B49-009A0DA88A78}" name="Use the bind::esri:fieldType column to control the field type created in the feature layer." dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3F05F349-1A9F-403B-A3B4-24E1E9732F01}" name="Esri field types" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E21F91EE-DEEC-4C26-8B49-009A0DA88A78}" name="Use the bind::esri:fieldType column to control the field type created in the feature layer." dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{474B3189-9717-47F1-85D2-1115BEA7D318}" name="Learn more"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7005,8 +7017,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE25B448-32A0-47C3-B8CA-A3217C56D721}" name="tblBindTypes" displayName="tblBindTypes" ref="A16:C22" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8ABABCDA-565D-4DA1-AF46-EA67EE5579DE}" name="Bind types" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DD933ECF-7EB5-4195-AA7A-8DF55FDF81CA}" name="Use in the bind::type column to overwrite default field type during a survey." dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8ABABCDA-565D-4DA1-AF46-EA67EE5579DE}" name="Bind types" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DD933ECF-7EB5-4195-AA7A-8DF55FDF81CA}" name="Use in the bind::type column to overwrite default field type during a survey." dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9672D06C-FA8E-4A81-8985-F209E2F23F4E}" name="Learn more"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7014,12 +7026,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1037">
     <sortCondition ref="A2:A1037"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7327,9 +7339,9 @@
   </sheetPr>
   <dimension ref="A1:AJ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7599,7 +7611,9 @@
       <c r="R4" s="61"/>
       <c r="S4" s="61"/>
       <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
+      <c r="U4" s="61">
+        <v>2000</v>
+      </c>
       <c r="V4" s="61"/>
       <c r="W4" s="61"/>
       <c r="X4" s="61"/>
@@ -8040,7 +8054,9 @@
       <c r="R14" s="61"/>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="61">
+        <v>1000</v>
+      </c>
       <c r="V14" s="61"/>
       <c r="W14" s="61"/>
       <c r="X14" s="61"/>
@@ -8870,7 +8886,9 @@
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
       <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
+      <c r="U35" s="61">
+        <v>1111</v>
+      </c>
       <c r="V35" s="61"/>
       <c r="W35" s="61"/>
       <c r="X35" s="61"/>
@@ -8978,7 +8996,9 @@
       <c r="R38" s="61"/>
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
+      <c r="U38" s="61">
+        <v>1111</v>
+      </c>
       <c r="V38" s="61"/>
       <c r="W38" s="61"/>
       <c r="X38" s="61"/>
@@ -9394,7 +9414,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -9408,7 +9428,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -9421,8 +9441,11 @@
       <c r="K51" s="66" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -9435,8 +9458,11 @@
       <c r="K52" s="66" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -9449,8 +9475,11 @@
       <c r="K53" s="66" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -9463,8 +9492,11 @@
       <c r="K54" s="66" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -9477,8 +9509,11 @@
       <c r="K55" s="66" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -9491,8 +9526,11 @@
       <c r="K56" s="66" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -9505,8 +9543,11 @@
       <c r="K58" s="66" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -9519,8 +9560,11 @@
       <c r="K59" s="66" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U59">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -9533,8 +9577,11 @@
       <c r="K60" s="66" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -9547,8 +9594,11 @@
       <c r="K61" s="66" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -9561,8 +9611,11 @@
       <c r="K62" s="66" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -9575,8 +9628,11 @@
       <c r="K63" s="66" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -9589,8 +9645,11 @@
       <c r="K64" s="66" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -9603,8 +9662,11 @@
       <c r="K66" s="66" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -9617,8 +9679,11 @@
       <c r="K67" s="66" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U67">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -9631,8 +9696,11 @@
       <c r="K68" s="66" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -9645,13 +9713,16 @@
       <c r="K69" s="66" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>1893</v>
+        <v>1912</v>
       </c>
       <c r="C70" t="s">
         <v>1893</v>
@@ -9660,13 +9731,16 @@
         <v>1897</v>
       </c>
       <c r="L70" s="67"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>1894</v>
+        <v>1913</v>
       </c>
       <c r="C71" t="s">
         <v>1894</v>
@@ -9674,13 +9748,16 @@
       <c r="K71" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="C72" t="s">
         <v>1895</v>
@@ -9688,13 +9765,16 @@
       <c r="K72" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>1896</v>
+        <v>1915</v>
       </c>
       <c r="C73" t="s">
         <v>1896</v>
@@ -9702,8 +9782,11 @@
       <c r="K73" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -9716,8 +9799,11 @@
       <c r="K74" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -9730,8 +9816,11 @@
       <c r="K75" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U75">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -9744,8 +9833,11 @@
       <c r="K76" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U76">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -9758,8 +9850,11 @@
       <c r="K77" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -9771,6 +9866,9 @@
       </c>
       <c r="K78" s="66" t="s">
         <v>1910</v>
+      </c>
+      <c r="U78">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -9834,7 +9932,7 @@
     <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C75">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" sqref="A15:A18 A34:A35 A37:A39 A48:A132" xr:uid="{5A5EBDF2-8D76-4B72-B739-2B3433DFC758}">
@@ -64807,10 +64905,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D30">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66020,10 +66118,10 @@
     <sortCondition ref="B44:B113"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67337,10 +67435,10 @@
     <mergeCell ref="D35:D37"/>
   </mergeCells>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B44">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{2C6D092A-0B0E-44BD-82D7-86DCBBE72CBA}"/>
